--- a/test report 1 (original file).xlsx
+++ b/test report 1 (original file).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\SSW 567\HW02\SSW567-HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A25A11-33B2-4A09-888E-FF14F1BDA389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B183EED3-E62C-4940-98B2-540D4DE683E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>test6</t>
   </si>
   <si>
-    <t>1,1,9</t>
-  </si>
-  <si>
     <t>test5</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>9,1,1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -587,16 +587,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -604,19 +604,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
